--- a/Plan/Excel/strategy plan.xlsx
+++ b/Plan/Excel/strategy plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Documents\Studie\Front-End Developing\FED Part Time Course\March-2019\Plan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB52006E-50BE-48E6-B9ED-94C0B01A758A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53087D5C-8B2A-4729-B84F-8D9AD985B30B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1DDF02C7-D28F-4DF7-9FC5-BF7816DC3F3B}"/>
   </bookViews>
@@ -154,7 +154,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +162,90 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -179,13 +253,167 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,252 +728,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE1395-0C25-4BDB-A5C5-A2ACBA956DF0}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="B2:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="33"/>
+      <c r="E8" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="31"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="36" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="31"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C27" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="31"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="31"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C34" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Plan/Excel/strategy plan.xlsx
+++ b/Plan/Excel/strategy plan.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Glenn\Documents\Studie\Front-End Developing\FED Part Time Course\March-2019\Plan\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53087D5C-8B2A-4729-B84F-8D9AD985B30B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840E9FC0-93AB-4944-B089-026F75E11D09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1DDF02C7-D28F-4DF7-9FC5-BF7816DC3F3B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{1DDF02C7-D28F-4DF7-9FC5-BF7816DC3F3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,11 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>Tasks</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
     <t>Initial Meeting</t>
   </si>
   <si>
@@ -148,15 +153,37 @@
   </si>
   <si>
     <t>Design/Dev/PM</t>
+  </si>
+  <si>
+    <t>Work Days</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Build</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -170,8 +197,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,13 +279,40 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -372,48 +434,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,6 +533,1326 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nb-NO"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12816305599455485"/>
+          <c:y val="3.8149731990622976E-3"/>
+          <c:w val="0.85762735253120004"/>
+          <c:h val="0.94537919632032319"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Start Date</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Ark2'!$A$2:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>Initial Meeting</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Research</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Content Strategy</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Content Planing</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Site Outline</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sketching</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Illustration</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Structure</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Text Content</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Site Photos</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Key meeting 1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Wireframe</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Employees pic</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Site Build</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>UI Planning</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Key Meeting 2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>UI Testing</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Content Validation</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Refinement</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Key Meeting 3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Launch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark2'!$C$2:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>43534</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43536</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43540</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43548</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43564</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43575</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43579</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43582</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43618</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43621</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F12-441A-A7A3-6C1F1540B915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Ark2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Work Days</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln w="50800">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="12700">
+                <a:schemeClr val="accent1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln w="50800">
+                <a:solidFill>
+                  <a:srgbClr val="70AD47"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="12700">
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-5F12-441A-A7A3-6C1F1540B915}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nb-NO"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark2'!$B$2:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5F12-441A-A7A3-6C1F1540B915}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="154"/>
+        <c:overlap val="100"/>
+        <c:axId val="1372878431"/>
+        <c:axId val="1370837823"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1372878431"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1370837823"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1370837823"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43628"/>
+          <c:min val="43534"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="[$-409]d\-mmm;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nb-NO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1372878431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nb-NO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId4"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28577</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34FB8E8-E39A-45C9-9166-4A7CEC52CB2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29397</cdr:x>
+      <cdr:y>0.01113</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29652</cdr:x>
+      <cdr:y>0.95487</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Rett linje 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{354D18D6-5D75-4E9D-981C-085EF24FE26B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3295649" y="58740"/>
+          <a:ext cx="28574" cy="4979985"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49703</cdr:x>
+      <cdr:y>0.01299</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.50042</cdr:x>
+      <cdr:y>0.95487</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="6" name="Rett linje 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70341C0D-64B6-49D4-879E-ED79671C5210}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5572124" y="68531"/>
+          <a:ext cx="38099" cy="4970194"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.83347</cdr:x>
+      <cdr:y>0.02412</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.83432</cdr:x>
+      <cdr:y>0.95487</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="8" name="Rett linje 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6B32A3-5612-45C9-A219-04D41722846F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="9344024" y="127271"/>
+          <a:ext cx="9524" cy="4911454"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25400"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,12 +2150,298 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DE1395-0C25-4BDB-A5C5-A2ACBA956DF0}">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,16 +2456,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B3" s="36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33"/>
@@ -763,70 +2473,70 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="34"/>
@@ -839,7 +2549,7 @@
     </row>
     <row r="11" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -853,60 +2563,60 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="34"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="34"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="33"/>
       <c r="E15" s="34"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="33"/>
       <c r="E16" s="34"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="34"/>
@@ -919,7 +2629,7 @@
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
@@ -933,60 +2643,60 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="34"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="34"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="34"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="34"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="34"/>
@@ -999,7 +2709,7 @@
     </row>
     <row r="29" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B29" s="36" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
@@ -1013,50 +2723,50 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="34"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="34"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="34"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="34"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="8"/>
@@ -1065,4 +2775,445 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D105E845-E655-4663-9A36-D58723E3050D}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="40">
+        <v>1</v>
+      </c>
+      <c r="C2" s="41">
+        <v>43534</v>
+      </c>
+      <c r="D2" s="41">
+        <f>C2+B2</f>
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="42">
+        <v>3</v>
+      </c>
+      <c r="C3" s="41">
+        <f>D2+1</f>
+        <v>43536</v>
+      </c>
+      <c r="D3" s="41">
+        <f>C3+B3</f>
+        <v>43539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="42">
+        <v>5</v>
+      </c>
+      <c r="C4" s="41">
+        <f>D3+1</f>
+        <v>43540</v>
+      </c>
+      <c r="D4" s="41">
+        <f>C4+B4</f>
+        <v>43545</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="42">
+        <v>1</v>
+      </c>
+      <c r="C5" s="41">
+        <f>D4+1</f>
+        <v>43546</v>
+      </c>
+      <c r="D5" s="41">
+        <f>C5+B5</f>
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="42">
+        <v>1</v>
+      </c>
+      <c r="C6" s="41">
+        <f>D5+1</f>
+        <v>43548</v>
+      </c>
+      <c r="D6" s="41">
+        <f>C6+B6</f>
+        <v>43549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="42">
+        <v>2</v>
+      </c>
+      <c r="C7" s="41">
+        <f>D6+1</f>
+        <v>43550</v>
+      </c>
+      <c r="D7" s="41">
+        <f>C7+B7</f>
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="42">
+        <v>3</v>
+      </c>
+      <c r="C8" s="41">
+        <f>D7+1</f>
+        <v>43553</v>
+      </c>
+      <c r="D8" s="41">
+        <f>C8+B8</f>
+        <v>43556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="42">
+        <v>3</v>
+      </c>
+      <c r="C9" s="41">
+        <f>D8+1</f>
+        <v>43557</v>
+      </c>
+      <c r="D9" s="41">
+        <f>C9+B9</f>
+        <v>43560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="42">
+        <v>2</v>
+      </c>
+      <c r="C10" s="41">
+        <f>D9+1</f>
+        <v>43561</v>
+      </c>
+      <c r="D10" s="41">
+        <f>C10+B10</f>
+        <v>43563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="42">
+        <v>5</v>
+      </c>
+      <c r="C11" s="41">
+        <f>D10+1</f>
+        <v>43564</v>
+      </c>
+      <c r="D11" s="41">
+        <f>C11+B11</f>
+        <v>43569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="42">
+        <v>2</v>
+      </c>
+      <c r="C12" s="41">
+        <f>D11+1</f>
+        <v>43570</v>
+      </c>
+      <c r="D12" s="41">
+        <f>C12+B12</f>
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="42">
+        <v>1</v>
+      </c>
+      <c r="C13" s="41">
+        <f>D12+1</f>
+        <v>43573</v>
+      </c>
+      <c r="D13" s="41">
+        <f>C13+B13</f>
+        <v>43574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="42">
+        <v>3</v>
+      </c>
+      <c r="C14" s="41">
+        <f>D13+1</f>
+        <v>43575</v>
+      </c>
+      <c r="D14" s="41">
+        <f>C14+B14</f>
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="42">
+        <v>2</v>
+      </c>
+      <c r="C15" s="41">
+        <f>D14+1</f>
+        <v>43579</v>
+      </c>
+      <c r="D15" s="41">
+        <f>C15+B15</f>
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="42">
+        <v>20</v>
+      </c>
+      <c r="C16" s="41">
+        <f>D15+1</f>
+        <v>43582</v>
+      </c>
+      <c r="D16" s="41">
+        <f>C16+B16</f>
+        <v>43602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="42">
+        <v>2</v>
+      </c>
+      <c r="C17" s="41">
+        <f>D16+1</f>
+        <v>43603</v>
+      </c>
+      <c r="D17" s="41">
+        <f>C17+B17</f>
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="42">
+        <v>1</v>
+      </c>
+      <c r="C18" s="41">
+        <f>D17+1</f>
+        <v>43606</v>
+      </c>
+      <c r="D18" s="41">
+        <f>C18+B18</f>
+        <v>43607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="42">
+        <v>3</v>
+      </c>
+      <c r="C19" s="41">
+        <f>D18+1</f>
+        <v>43608</v>
+      </c>
+      <c r="D19" s="41">
+        <f>C19+B19</f>
+        <v>43611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="42">
+        <v>5</v>
+      </c>
+      <c r="C20" s="41">
+        <f>D19+1</f>
+        <v>43612</v>
+      </c>
+      <c r="D20" s="41">
+        <f>C20+B20</f>
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="42">
+        <v>2</v>
+      </c>
+      <c r="C21" s="41">
+        <f>D20+1</f>
+        <v>43618</v>
+      </c>
+      <c r="D21" s="41">
+        <f>C21+B21</f>
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="42">
+        <v>3</v>
+      </c>
+      <c r="C22" s="41">
+        <f>D21+1</f>
+        <v>43621</v>
+      </c>
+      <c r="D22" s="41">
+        <f>C22+B22</f>
+        <v>43624</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="42">
+        <v>1</v>
+      </c>
+      <c r="C23" s="41">
+        <f>D22+1</f>
+        <v>43625</v>
+      </c>
+      <c r="D23" s="41">
+        <f>C23+B23</f>
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="42">
+        <v>1</v>
+      </c>
+      <c r="C24" s="41">
+        <f>D23+1</f>
+        <v>43627</v>
+      </c>
+      <c r="D24" s="41">
+        <f>C24+B24</f>
+        <v>43628</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4FCBCB-7B61-4324-94D6-9530B0A38803}">
+  <dimension ref="C1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="56.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>